--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/20/seed5/result_data_KNN.xlsx
@@ -627,7 +627,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>17.27</v>
+        <v>17.517</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.77</v>
+        <v>17.386</v>
       </c>
     </row>
     <row r="13">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.004</v>
+        <v>16.357</v>
       </c>
     </row>
     <row r="16">
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.554</v>
+        <v>16.899</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.89</v>
+        <v>17.148</v>
       </c>
     </row>
     <row r="29">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.996</v>
+        <v>16.509</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>17.368</v>
+        <v>17.517</v>
       </c>
     </row>
     <row r="33">
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.748</v>
+        <v>16.652</v>
       </c>
     </row>
     <row r="37">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.678</v>
+        <v>16.631</v>
       </c>
     </row>
     <row r="39">
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>17.14</v>
+        <v>17.015</v>
       </c>
     </row>
     <row r="47">
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.756</v>
+        <v>16.754</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.676</v>
+        <v>16.378</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.096</v>
+        <v>16.351</v>
       </c>
     </row>
     <row r="57">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>16.762</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="68">
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.002</v>
+        <v>17.386</v>
       </c>
     </row>
     <row r="70">
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>16.828</v>
+        <v>16.898</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.588</v>
+        <v>16.602</v>
       </c>
     </row>
     <row r="74">
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.964</v>
+        <v>16.822</v>
       </c>
     </row>
     <row r="84">
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.416</v>
+        <v>16.542</v>
       </c>
     </row>
     <row r="87">
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.772</v>
+        <v>17.577</v>
       </c>
     </row>
     <row r="92">
@@ -2021,7 +2021,7 @@
         <v>-6.1</v>
       </c>
       <c r="E93" t="n">
-        <v>17.108</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="94">
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.804</v>
+        <v>16.766</v>
       </c>
     </row>
     <row r="100">
